--- a/medicine/Mort/Cimetière_de_Loukianivka/Cimetière_de_Loukianivka.xlsx
+++ b/medicine/Mort/Cimetière_de_Loukianivka/Cimetière_de_Loukianivka.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Loukianivka</t>
+          <t>Cimetière_de_Loukianivka</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de Loukianivka (en ukrainien : Лук'янівське цивільне кладовище / Louk'ianivske tsyvilne kladovychtche ou Лук'янівський цвинтар / Louk'ianivskyy tsvyntar) est un cimetière situé dans le quartier de Loukianivka (uk) de la capitale ukrainienne, Kiev. 
 C'est l'un des plus anciens et les plus importants de la ville. Il est inscrit au Registre national des monuments d'Ukraine sous le numéro : 80-391-9004.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Loukianivka</t>
+          <t>Cimetière_de_Loukianivka</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>En quelques images</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Aux marins de la 4e flottille du Dniepr ;
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Loukianivka</t>
+          <t>Cimetière_de_Loukianivka</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Cimetière militaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">De l'autre côté du boulevard se trouve la partie militaire. Y reposent Volodymyr Smyrnov, Alexeï Fiodorovitch Kanaïev entre autres.
 			L'entrée,
